--- a/biology/Zoologie/Euthycaelus/Euthycaelus.xlsx
+++ b/biology/Zoologie/Euthycaelus/Euthycaelus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euthycaelus est un genre d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euthycaelus est un genre d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Venezuela, en Colombie, au Panama et au Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Venezuela, en Colombie, au Panama et au Pérou.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 11/08/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 11/08/2023) :
 Euthycaelus amandae Guadanucci &amp; Weinmann, 2014
 Euthycaelus astutus (Simon, 1889)
 Euthycaelus colonica Simon, 1889
@@ -580,9 +596,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Simon en 1889 dans les Aviculariidae. Il est placé en synonymie avec Holothele par Raven en 1985[2]. Il est relevé de synonymie par Guadanucci et Weinmann en 2014[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Simon en 1889 dans les Aviculariidae. Il est placé en synonymie avec Holothele par Raven en 1985. Il est relevé de synonymie par Guadanucci et Weinmann en 2014.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1889 : « Arachnides. Voyage de M. E. Simon au Venezuela (décembre 1887-avril 1888). 4e Mémoire. » Annales de la Société Entomologique de France, sér. 6, vol. 9, p. 169-220 (texte intégral).</t>
         </is>
